--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>105.2534506666667</v>
+        <v>23.000594</v>
       </c>
       <c r="H2">
-        <v>315.760352</v>
+        <v>69.00178200000001</v>
       </c>
       <c r="I2">
-        <v>0.2966477300323703</v>
+        <v>0.1085495600721081</v>
       </c>
       <c r="J2">
-        <v>0.2966477300323703</v>
+        <v>0.1085495600721081</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.010628</v>
+        <v>32.63563666666667</v>
       </c>
       <c r="N2">
-        <v>111.031884</v>
+        <v>97.90691000000001</v>
       </c>
       <c r="O2">
-        <v>0.9928387522559806</v>
+        <v>0.9900101876891448</v>
       </c>
       <c r="P2">
-        <v>0.9928387522559805</v>
+        <v>0.9900101876891446</v>
       </c>
       <c r="Q2">
-        <v>3895.496308340352</v>
+        <v>750.6390289015135</v>
       </c>
       <c r="R2">
-        <v>35059.46677506316</v>
+        <v>6755.751260113621</v>
       </c>
       <c r="S2">
-        <v>0.2945233621449075</v>
+        <v>0.1074651703405619</v>
       </c>
       <c r="T2">
-        <v>0.2945233621449075</v>
+        <v>0.1074651703405619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>105.2534506666667</v>
+        <v>23.000594</v>
       </c>
       <c r="H3">
-        <v>315.760352</v>
+        <v>69.00178200000001</v>
       </c>
       <c r="I3">
-        <v>0.2966477300323703</v>
+        <v>0.1085495600721081</v>
       </c>
       <c r="J3">
-        <v>0.2966477300323703</v>
+        <v>0.1085495600721081</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05920466666666668</v>
+        <v>0.05920466666666666</v>
       </c>
       <c r="N3">
         <v>0.177614</v>
       </c>
       <c r="O3">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="P3">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="Q3">
-        <v>6.231495462236445</v>
+        <v>1.361742500905333</v>
       </c>
       <c r="R3">
-        <v>56.08345916012801</v>
+        <v>12.255682508148</v>
       </c>
       <c r="S3">
-        <v>0.0004711391949721903</v>
+        <v>0.0001949537449896903</v>
       </c>
       <c r="T3">
-        <v>0.0004711391949721902</v>
+        <v>0.0001949537449896902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>105.2534506666667</v>
+        <v>23.000594</v>
       </c>
       <c r="H4">
-        <v>315.760352</v>
+        <v>69.00178200000001</v>
       </c>
       <c r="I4">
-        <v>0.2966477300323703</v>
+        <v>0.1085495600721081</v>
       </c>
       <c r="J4">
-        <v>0.2966477300323703</v>
+        <v>0.1085495600721081</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2077493333333333</v>
+        <v>0.270109</v>
       </c>
       <c r="N4">
-        <v>0.623248</v>
+        <v>0.810327</v>
       </c>
       <c r="O4">
-        <v>0.005573036720389573</v>
+        <v>0.008193823963595435</v>
       </c>
       <c r="P4">
-        <v>0.005573036720389572</v>
+        <v>0.008193823963595434</v>
       </c>
       <c r="Q4">
-        <v>21.86633420703289</v>
+        <v>6.212667444746001</v>
       </c>
       <c r="R4">
-        <v>196.797007863296</v>
+        <v>55.91400700271401</v>
       </c>
       <c r="S4">
-        <v>0.001653228692490612</v>
+        <v>0.0008894359865565819</v>
       </c>
       <c r="T4">
-        <v>0.001653228692490612</v>
+        <v>0.0008894359865565818</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>161.0956266666666</v>
+        <v>161.0956266666667</v>
       </c>
       <c r="H5">
-        <v>483.2868799999999</v>
+        <v>483.28688</v>
       </c>
       <c r="I5">
-        <v>0.4540340641196984</v>
+        <v>0.7602785999442988</v>
       </c>
       <c r="J5">
-        <v>0.4540340641196984</v>
+        <v>0.7602785999442987</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.010628</v>
+        <v>32.63563666666667</v>
       </c>
       <c r="N5">
-        <v>111.031884</v>
+        <v>97.90691000000001</v>
       </c>
       <c r="O5">
-        <v>0.9928387522559806</v>
+        <v>0.9900101876891448</v>
       </c>
       <c r="P5">
-        <v>0.9928387522559805</v>
+        <v>0.9900101876891446</v>
       </c>
       <c r="Q5">
-        <v>5962.250310986879</v>
+        <v>5257.458340482312</v>
       </c>
       <c r="R5">
-        <v>53660.25279888191</v>
+        <v>47317.12506434081</v>
       </c>
       <c r="S5">
-        <v>0.4507826137023133</v>
+        <v>0.7526835594268956</v>
       </c>
       <c r="T5">
-        <v>0.4507826137023132</v>
+        <v>0.7526835594268952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>161.0956266666666</v>
+        <v>161.0956266666667</v>
       </c>
       <c r="H6">
-        <v>483.2868799999999</v>
+        <v>483.28688</v>
       </c>
       <c r="I6">
-        <v>0.4540340641196984</v>
+        <v>0.7602785999442988</v>
       </c>
       <c r="J6">
-        <v>0.4540340641196984</v>
+        <v>0.7602785999442987</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.05920466666666668</v>
+        <v>0.05920466666666666</v>
       </c>
       <c r="N6">
         <v>0.177614</v>
       </c>
       <c r="O6">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="P6">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="Q6">
-        <v>9.537612878257779</v>
+        <v>9.537612878257777</v>
       </c>
       <c r="R6">
-        <v>85.83851590432</v>
+        <v>85.83851590431999</v>
       </c>
       <c r="S6">
-        <v>0.0007211019057383794</v>
+        <v>0.001365451506171</v>
       </c>
       <c r="T6">
-        <v>0.0007211019057383793</v>
+        <v>0.001365451506171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>161.0956266666666</v>
+        <v>161.0956266666667</v>
       </c>
       <c r="H7">
-        <v>483.2868799999999</v>
+        <v>483.28688</v>
       </c>
       <c r="I7">
-        <v>0.4540340641196984</v>
+        <v>0.7602785999442988</v>
       </c>
       <c r="J7">
-        <v>0.4540340641196984</v>
+        <v>0.7602785999442987</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2077493333333333</v>
+        <v>0.270109</v>
       </c>
       <c r="N7">
-        <v>0.623248</v>
+        <v>0.810327</v>
       </c>
       <c r="O7">
-        <v>0.005573036720389573</v>
+        <v>0.008193823963595435</v>
       </c>
       <c r="P7">
-        <v>0.005573036720389572</v>
+        <v>0.008193823963595434</v>
       </c>
       <c r="Q7">
-        <v>33.46750904291555</v>
+        <v>43.51337862330666</v>
       </c>
       <c r="R7">
-        <v>301.20758138624</v>
+        <v>391.62040760976</v>
       </c>
       <c r="S7">
-        <v>0.002530348511646793</v>
+        <v>0.006229589011232383</v>
       </c>
       <c r="T7">
-        <v>0.002530348511646792</v>
+        <v>0.00622958901123238</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>88.460483</v>
+        <v>27.79403466666666</v>
       </c>
       <c r="H8">
-        <v>265.381449</v>
+        <v>83.382104</v>
       </c>
       <c r="I8">
-        <v>0.2493182058479313</v>
+        <v>0.131171839983593</v>
       </c>
       <c r="J8">
-        <v>0.2493182058479313</v>
+        <v>0.131171839983593</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.010628</v>
+        <v>32.63563666666667</v>
       </c>
       <c r="N8">
-        <v>111.031884</v>
+        <v>97.90691000000001</v>
       </c>
       <c r="O8">
-        <v>0.9928387522559806</v>
+        <v>0.9900101876891448</v>
       </c>
       <c r="P8">
-        <v>0.9928387522559805</v>
+        <v>0.9900101876891446</v>
       </c>
       <c r="Q8">
-        <v>3273.978029013324</v>
+        <v>907.0760168820711</v>
       </c>
       <c r="R8">
-        <v>29465.80226111991</v>
+        <v>8163.684151938641</v>
       </c>
       <c r="S8">
-        <v>0.2475327764087598</v>
+        <v>0.1298614579216874</v>
       </c>
       <c r="T8">
-        <v>0.2475327764087598</v>
+        <v>0.1298614579216874</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>88.460483</v>
+        <v>27.79403466666666</v>
       </c>
       <c r="H9">
-        <v>265.381449</v>
+        <v>83.382104</v>
       </c>
       <c r="I9">
-        <v>0.2493182058479313</v>
+        <v>0.131171839983593</v>
       </c>
       <c r="J9">
-        <v>0.2493182058479313</v>
+        <v>0.131171839983593</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -986,28 +986,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05920466666666668</v>
+        <v>0.05920466666666666</v>
       </c>
       <c r="N9">
         <v>0.177614</v>
       </c>
       <c r="O9">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="P9">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="Q9">
-        <v>5.237273409187334</v>
+        <v>1.645536557761778</v>
       </c>
       <c r="R9">
-        <v>47.135460682686</v>
+        <v>14.809829019856</v>
       </c>
       <c r="S9">
-        <v>0.0003959699229193074</v>
+        <v>0.0002355830960991679</v>
       </c>
       <c r="T9">
-        <v>0.0003959699229193073</v>
+        <v>0.0002355830960991678</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>88.460483</v>
+        <v>27.79403466666666</v>
       </c>
       <c r="H10">
-        <v>265.381449</v>
+        <v>83.382104</v>
       </c>
       <c r="I10">
-        <v>0.2493182058479313</v>
+        <v>0.131171839983593</v>
       </c>
       <c r="J10">
-        <v>0.2493182058479313</v>
+        <v>0.131171839983593</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2077493333333333</v>
+        <v>0.270109</v>
       </c>
       <c r="N10">
-        <v>0.623248</v>
+        <v>0.810327</v>
       </c>
       <c r="O10">
-        <v>0.005573036720389573</v>
+        <v>0.008193823963595435</v>
       </c>
       <c r="P10">
-        <v>0.005573036720389572</v>
+        <v>0.008193823963595434</v>
       </c>
       <c r="Q10">
-        <v>18.37760636959467</v>
+        <v>7.507418909778666</v>
       </c>
       <c r="R10">
-        <v>165.398457326352</v>
+        <v>67.56677018800799</v>
       </c>
       <c r="S10">
-        <v>0.001389459516252167</v>
+        <v>0.00107479896580647</v>
       </c>
       <c r="T10">
-        <v>0.001389459516252167</v>
+        <v>0.00107479896580647</v>
       </c>
     </row>
   </sheetData>
